--- a/data/products_import_sample.xlsx
+++ b/data/products_import_sample.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>sku</t>
   </si>
   <si>
+    <t>seller_sku</t>
+  </si>
+  <si>
+    <t>wb_sku</t>
+  </si>
+  <si>
     <t>nm_id</t>
   </si>
   <si>
@@ -31,91 +37,142 @@
     <t>category</t>
   </si>
   <si>
+    <t>price_src</t>
+  </si>
+  <si>
+    <t>seller_discount_pct</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
+    <t>price_final</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>stock_wb</t>
+  </si>
+  <si>
+    <t>stock_seller</t>
+  </si>
+  <si>
     <t>barcode</t>
   </si>
   <si>
     <t>is_active</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>season</t>
+    <t>product_cost</t>
+  </si>
+  <si>
+    <t>shipping_cost</t>
+  </si>
+  <si>
+    <t>logistics_back_cost</t>
+  </si>
+  <si>
+    <t>warehouse_coeff</t>
+  </si>
+  <si>
+    <t>turnover_days</t>
+  </si>
+  <si>
+    <t>weight_kg</t>
+  </si>
+  <si>
+    <t>package_l_cm</t>
+  </si>
+  <si>
+    <t>package_w_cm</t>
+  </si>
+  <si>
+    <t>package_h_cm</t>
   </si>
   <si>
     <t>volume_l</t>
   </si>
   <si>
-    <t>WB-20001</t>
-  </si>
-  <si>
-    <t>WB-20002</t>
-  </si>
-  <si>
-    <t>WB-20003</t>
-  </si>
-  <si>
-    <t>Футболка унисекс с принтом</t>
-  </si>
-  <si>
-    <t>Легинсы спортивные</t>
-  </si>
-  <si>
-    <t>Рюкзак городской водоотталкивающий</t>
-  </si>
-  <si>
-    <t>DemoWear</t>
-  </si>
-  <si>
-    <t>Urban Demo</t>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>custom_data</t>
+  </si>
+  <si>
+    <t>WB-10001</t>
+  </si>
+  <si>
+    <t>WB-10002</t>
+  </si>
+  <si>
+    <t>WB-10003</t>
+  </si>
+  <si>
+    <t>SELLER-10001</t>
+  </si>
+  <si>
+    <t>SELLER-10002</t>
+  </si>
+  <si>
+    <t>SELLER-10003</t>
+  </si>
+  <si>
+    <t>WB-10001-01</t>
+  </si>
+  <si>
+    <t>WB-10002-01</t>
+  </si>
+  <si>
+    <t>WB-10003-01</t>
+  </si>
+  <si>
+    <t>Футболка мужская базовая</t>
+  </si>
+  <si>
+    <t>Худи оверсайз женское</t>
+  </si>
+  <si>
+    <t>Рюкзак городской</t>
+  </si>
+  <si>
+    <t>MockWear</t>
+  </si>
+  <si>
+    <t>Urban Mock</t>
   </si>
   <si>
     <t>Одежда</t>
   </si>
   <si>
-    <t>Спорт</t>
-  </si>
-  <si>
     <t>Аксессуары</t>
   </si>
   <si>
-    <t>9900011122234</t>
-  </si>
-  <si>
-    <t>9900011122235</t>
-  </si>
-  <si>
-    <t>9900011122236</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Черный</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SS24</t>
-  </si>
-  <si>
-    <t>AW24</t>
+    <t>1112223334445</t>
+  </si>
+  <si>
+    <t>1112223334446</t>
+  </si>
+  <si>
+    <t>1112223334447</t>
+  </si>
+  <si>
+    <t>Базовая позиция</t>
+  </si>
+  <si>
+    <t>Сезонная коллекция</t>
+  </si>
+  <si>
+    <t>Влагостойкий материал</t>
+  </si>
+  <si>
+    <t>{"commission_pct": 15, "tax_pct": 6}</t>
+  </si>
+  <si>
+    <t>{"commission_pct": 18, "tax_pct": 6}</t>
+  </si>
+  <si>
+    <t>{"commission_pct": 17, "tax_pct": 6}</t>
   </si>
 </sst>
 </file>
@@ -473,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,116 +576,308 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>20001</v>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>10001</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>1299</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1169.1</v>
+      </c>
+      <c r="K2">
+        <v>1169.1</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>620</v>
+      </c>
+      <c r="R2">
+        <v>45</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>35</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>0.35</v>
+      </c>
+      <c r="W2">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>3.264</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>10002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>2499</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>2124.15</v>
+      </c>
+      <c r="K3">
+        <v>2124.15</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>980</v>
+      </c>
+      <c r="R3">
+        <v>65</v>
+      </c>
+      <c r="S3">
+        <v>28</v>
+      </c>
+      <c r="T3">
+        <v>42</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>0.58</v>
+      </c>
+      <c r="W3">
+        <v>40</v>
+      </c>
+      <c r="X3">
+        <v>28</v>
+      </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>10003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>1899</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>1671.12</v>
+      </c>
+      <c r="K4">
+        <v>1671.12</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>780</v>
+      </c>
+      <c r="R4">
+        <v>55</v>
+      </c>
+      <c r="S4">
+        <v>25</v>
+      </c>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
         <v>21</v>
       </c>
-      <c r="F2">
-        <v>1499</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="V4">
+        <v>0.74</v>
+      </c>
+      <c r="W4">
+        <v>45</v>
+      </c>
+      <c r="X4">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>20002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>1799</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>20003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>2199</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
+      <c r="Y4">
+        <v>12</v>
+      </c>
+      <c r="Z4">
+        <v>17.28</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/products_import_sample.xlsx
+++ b/data/products_import_sample.xlsx
@@ -14,90 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>seller_sku</t>
-  </si>
-  <si>
-    <t>wb_sku</t>
-  </si>
-  <si>
-    <t>nm_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>price_src</t>
-  </si>
-  <si>
-    <t>seller_discount_pct</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price_final</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stock_wb</t>
-  </si>
-  <si>
-    <t>stock_seller</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>product_cost</t>
-  </si>
-  <si>
-    <t>shipping_cost</t>
-  </si>
-  <si>
-    <t>logistics_back_cost</t>
-  </si>
-  <si>
-    <t>warehouse_coeff</t>
-  </si>
-  <si>
-    <t>turnover_days</t>
-  </si>
-  <si>
-    <t>weight_kg</t>
-  </si>
-  <si>
-    <t>package_l_cm</t>
-  </si>
-  <si>
-    <t>package_w_cm</t>
-  </si>
-  <si>
-    <t>package_h_cm</t>
-  </si>
-  <si>
-    <t>volume_l</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>custom_data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Артикул продавца</t>
+  </si>
+  <si>
+    <t>Артикул WB</t>
+  </si>
+  <si>
+    <t>NM ID</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Текущая цена</t>
+  </si>
+  <si>
+    <t>Скидка, %</t>
+  </si>
+  <si>
+    <t>Итоговая цена (расчёт)</t>
+  </si>
+  <si>
+    <t>Цена со скидкой (расчёт)</t>
+  </si>
+  <si>
+    <t>Остаток общий (расчёт)</t>
+  </si>
+  <si>
+    <t>Остатки WB</t>
+  </si>
+  <si>
+    <t>Остатки продавца</t>
+  </si>
+  <si>
+    <t>Штрихкод</t>
+  </si>
+  <si>
+    <t>Активен</t>
+  </si>
+  <si>
+    <t>Себик</t>
+  </si>
+  <si>
+    <t>Транспортировка</t>
+  </si>
+  <si>
+    <t>Логистика возврата</t>
+  </si>
+  <si>
+    <t>Коэфф. склада</t>
+  </si>
+  <si>
+    <t>Оборачиваемость, дни</t>
+  </si>
+  <si>
+    <t>Вес с упаковкой (кг)</t>
+  </si>
+  <si>
+    <t>Длина упаковки, см</t>
+  </si>
+  <si>
+    <t>Ширина упаковки, см</t>
+  </si>
+  <si>
+    <t>Высота упаковки, см</t>
+  </si>
+  <si>
+    <t>Литраж</t>
+  </si>
+  <si>
+    <t>Комменты</t>
+  </si>
+  <si>
+    <t>Доп данные JSON</t>
   </si>
   <si>
     <t>WB-10001</t>
@@ -146,15 +146,6 @@
   </si>
   <si>
     <t>Аксессуары</t>
-  </si>
-  <si>
-    <t>1112223334445</t>
-  </si>
-  <si>
-    <t>1112223334446</t>
-  </si>
-  <si>
-    <t>1112223334447</t>
   </si>
   <si>
     <t>Базовая позиция</t>
@@ -665,8 +656,8 @@
       <c r="N2">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
-        <v>44</v>
+      <c r="O2">
+        <v>1112223334445</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -702,10 +693,10 @@
         <v>3.264</v>
       </c>
       <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
         <v>47</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -751,8 +742,8 @@
       <c r="N3">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
-        <v>45</v>
+      <c r="O3">
+        <v>1112223334446</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -788,10 +779,10 @@
         <v>8.960000000000001</v>
       </c>
       <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
         <v>48</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -837,8 +828,8 @@
       <c r="N4">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
-        <v>46</v>
+      <c r="O4">
+        <v>1112223334447</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -874,10 +865,10 @@
         <v>17.28</v>
       </c>
       <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
         <v>49</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
